--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>NAME</t>
   </si>
@@ -144,6 +144,9 @@
     <t>AMOUNT</t>
   </si>
   <si>
+    <t xml:space="preserve">ATUHUMWIIZE ANNITAH </t>
+  </si>
+  <si>
     <t>MONTH</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
   </si>
   <si>
     <t>Fic number</t>
+  </si>
+  <si>
+    <t>ATUHUMWIIZE ANNITAH</t>
   </si>
   <si>
     <t>MEMBERS WHO LEFT THE CLUB</t>
@@ -426,11 +432,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2146877612"/>
-        <c:axId val="220968179"/>
+        <c:axId val="1611093017"/>
+        <c:axId val="1279481821"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146877612"/>
+        <c:axId val="1611093017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,10 +488,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220968179"/>
+        <c:crossAx val="1279481821"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220968179"/>
+        <c:axId val="1279481821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146877612"/>
+        <c:crossAx val="1611093017"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -849,11 +855,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1234260169"/>
-        <c:axId val="1649700271"/>
+        <c:axId val="1170224050"/>
+        <c:axId val="1950556903"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1234260169"/>
+        <c:axId val="1170224050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,10 +911,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649700271"/>
+        <c:crossAx val="1950556903"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1649700271"/>
+        <c:axId val="1950556903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1234260169"/>
+        <c:crossAx val="1170224050"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1066,11 +1072,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141289261"/>
-        <c:axId val="1194666061"/>
+        <c:axId val="1241137970"/>
+        <c:axId val="491292756"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141289261"/>
+        <c:axId val="1241137970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,10 +1128,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194666061"/>
+        <c:crossAx val="491292756"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1194666061"/>
+        <c:axId val="491292756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141289261"/>
+        <c:crossAx val="1241137970"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1260,11 +1266,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1743023255"/>
-        <c:axId val="2081336732"/>
+        <c:axId val="2029367365"/>
+        <c:axId val="442505912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1743023255"/>
+        <c:axId val="2029367365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,10 +1322,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081336732"/>
+        <c:crossAx val="442505912"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081336732"/>
+        <c:axId val="442505912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1389,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743023255"/>
+        <c:crossAx val="2029367365"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6537,8 +6543,8 @@
       <c r="A12" s="4">
         <v>11.0</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="5">
         <v>10000.0</v>
@@ -9600,7 +9606,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -9648,7 +9654,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -10050,7 +10056,7 @@
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2">
         <f>SUM(B14:Q14)</f>
@@ -10066,7 +10072,7 @@
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -13182,7 +13188,7 @@
         <v>350000</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -13365,7 +13371,7 @@
         <v>350000</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -13507,8 +13513,8 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>20</v>
+      <c r="A11" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="4">
         <v>20000.0</v>
@@ -13727,7 +13733,7 @@
         <v>270000</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -13859,7 +13865,7 @@
         <v>157000</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -16951,7 +16957,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -16999,7 +17005,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -17414,7 +17420,7 @@
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1">
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(B14:Q14)</f>
@@ -18432,24 +18438,24 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -18457,7 +18463,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="17">
         <v>44256.0</v>
@@ -18474,7 +18480,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="17">
         <v>44256.0</v>
@@ -18491,7 +18497,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="17">
         <v>44256.0</v>
@@ -18508,7 +18514,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="17">
         <v>44562.0</v>
@@ -18525,7 +18531,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="17">
         <v>44760.0</v>
@@ -18542,7 +18548,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="17">
         <v>44767.0</v>
@@ -18559,13 +18565,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="20">
         <v>45031.0</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="18">
         <v>224000.0</v>
@@ -21577,12 +21583,12 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -21591,10 +21597,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -21602,7 +21608,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="21">
         <v>30000.0</v>
@@ -21611,7 +21617,7 @@
         <v>44348.0</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -21619,7 +21625,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="21">
         <v>20000.0</v>
@@ -21628,7 +21634,7 @@
         <v>44348.0</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -21636,7 +21642,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="21">
         <v>150000.0</v>
@@ -21648,7 +21654,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="22">
         <v>200000.0</v>
@@ -21660,7 +21666,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="21">
         <v>30000.0</v>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -432,11 +432,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1611093017"/>
-        <c:axId val="1279481821"/>
+        <c:axId val="1313602619"/>
+        <c:axId val="1872795982"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1611093017"/>
+        <c:axId val="1313602619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,10 +488,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279481821"/>
+        <c:crossAx val="1872795982"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1279481821"/>
+        <c:axId val="1872795982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611093017"/>
+        <c:crossAx val="1313602619"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -855,11 +855,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1170224050"/>
-        <c:axId val="1950556903"/>
+        <c:axId val="2036553483"/>
+        <c:axId val="500581560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1170224050"/>
+        <c:axId val="2036553483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,10 +911,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1950556903"/>
+        <c:crossAx val="500581560"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1950556903"/>
+        <c:axId val="500581560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1170224050"/>
+        <c:crossAx val="2036553483"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1072,11 +1072,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1241137970"/>
-        <c:axId val="491292756"/>
+        <c:axId val="966179805"/>
+        <c:axId val="220468949"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1241137970"/>
+        <c:axId val="966179805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,10 +1128,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491292756"/>
+        <c:crossAx val="220468949"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491292756"/>
+        <c:axId val="220468949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241137970"/>
+        <c:crossAx val="966179805"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1266,11 +1266,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2029367365"/>
-        <c:axId val="442505912"/>
+        <c:axId val="609776349"/>
+        <c:axId val="510452582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2029367365"/>
+        <c:axId val="609776349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,10 +1322,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442505912"/>
+        <c:crossAx val="510452582"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442505912"/>
+        <c:axId val="510452582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1389,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2029367365"/>
+        <c:crossAx val="609776349"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
